--- a/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e720170\PycharmProjects\pythonProject\dbt-env\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58484C9-2644-42C4-8CF6-6421B564F364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B9D7C9-E19B-4BAE-B4BF-5C563DCE1C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="113">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -218,12 +218,6 @@
     <t>sysdate</t>
   </si>
   <si>
-    <t>dwhstage</t>
-  </si>
-  <si>
-    <t>HK_CUSTOMER_H</t>
-  </si>
-  <si>
     <t>raw_vault</t>
   </si>
   <si>
@@ -239,30 +233,15 @@
     <t>N_NATIONKEY</t>
   </si>
   <si>
-    <t>HK_NATION_H</t>
-  </si>
-  <si>
     <t>C_NATIONKEY</t>
   </si>
   <si>
     <t>HK_CUSTOMER_NATION_L</t>
   </si>
   <si>
-    <t>CUSTOMER_NATION_L</t>
-  </si>
-  <si>
-    <t>CUSTOMER_H</t>
-  </si>
-  <si>
-    <t>NATION_H</t>
-  </si>
-  <si>
     <t>S0001</t>
   </si>
   <si>
-    <t>CUSTOMER_S</t>
-  </si>
-  <si>
     <t>C_NAME</t>
   </si>
   <si>
@@ -281,32 +260,119 @@
     <t>C_COMMENT</t>
   </si>
   <si>
-    <t>PRI_CUSTOMER_S</t>
-  </si>
-  <si>
     <t>P0001</t>
   </si>
   <si>
     <t>business_vault</t>
   </si>
   <si>
-    <t>CUSTOMER_BP</t>
-  </si>
-  <si>
-    <t>SNAP_V1</t>
-  </si>
-  <si>
-    <t>IS_ACTIVE</t>
-  </si>
-  <si>
     <t>HK_CUSTOMER_D</t>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>S0001;S0002</t>
+  </si>
+  <si>
+    <t>SRC0005</t>
+  </si>
+  <si>
+    <t>wilibald</t>
+  </si>
+  <si>
+    <t>wohnort</t>
+  </si>
+  <si>
+    <t>!Wohnort</t>
+  </si>
+  <si>
+    <t>Wohnort</t>
+  </si>
+  <si>
+    <t>MAS0001</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>!Daniel</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>SRC0006</t>
+  </si>
+  <si>
+    <t>c_phone</t>
+  </si>
+  <si>
+    <t>c_custkey</t>
+  </si>
+  <si>
+    <t>CUST_HUB_CUSTOMER_CUST</t>
+  </si>
+  <si>
+    <t>CUST_HUB_NATION_CNAT</t>
+  </si>
+  <si>
+    <t>CUSTKEY_HK</t>
+  </si>
+  <si>
+    <t>NATIONKEY_HK</t>
+  </si>
+  <si>
+    <t>CUST_LNK_CUST_NATION_LCUN</t>
+  </si>
+  <si>
+    <t>CUST_HUS_CUSTOMER_CUSS</t>
+  </si>
+  <si>
+    <t>CUST_HPS_CUSTOMER_CUSP</t>
+  </si>
+  <si>
+    <t>CUST_HMS_CUSTOMER_CUSM</t>
+  </si>
+  <si>
+    <t>CUST_PIT_CUSTOMER_CUSP</t>
+  </si>
+  <si>
+    <t>customer_taxlocation</t>
+  </si>
+  <si>
+    <t>SRC0007</t>
+  </si>
+  <si>
+    <t>CUST_LNK_CUST_TAXNATION_LCXN</t>
+  </si>
+  <si>
+    <t>L0002</t>
+  </si>
+  <si>
+    <t>N_NAME</t>
+  </si>
+  <si>
+    <t>HK_CUSTOMER_TAXNATION_L</t>
+  </si>
+  <si>
+    <t>customertaxlocation</t>
+  </si>
+  <si>
+    <t>cdwh_stg_010138_dynamics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -350,15 +416,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -427,9 +484,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -650,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -690,10 +747,10 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>60</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -705,7 +762,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
@@ -720,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -729,62 +786,62 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -793,39 +850,74 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="J7" s="5"/>
-    </row>
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
@@ -877,12 +969,12 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -946,10 +1038,10 @@
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
@@ -962,80 +1054,138 @@
         <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1061,6 +1211,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1073,12 +1224,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -1119,176 +1270,176 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1475,20 +1626,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,15 +1676,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1544,6 +1717,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1600,6 +1774,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1671,7 +1846,7 @@
       <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>59</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -1737,7 +1912,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1922,16 +2097,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1953,47 +2128,55 @@
       <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2002,17 +2185,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -2060,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -2074,8 +2257,8 @@
       <c r="H2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>66</v>
+      <c r="I2" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2272,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>51</v>
@@ -2103,8 +2286,8 @@
       <c r="H3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>66</v>
+      <c r="I3" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,7 +2301,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>52</v>
@@ -2132,8 +2315,8 @@
       <c r="H4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>66</v>
+      <c r="I4" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,7 +2330,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>53</v>
@@ -2161,29 +2344,96 @@
       <c r="H5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>66</v>
+      <c r="I5" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e720170\PycharmProjects\pythonProject\dbt-env\turbovault4dbt\metadata_ddl\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\software\datavaultstarter\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B9D7C9-E19B-4BAE-B4BF-5C563DCE1C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC1CFD-62B6-4C77-8777-52854FFC1B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -173,30 +173,12 @@
     <t>!Customer</t>
   </si>
   <si>
-    <t>SRC0002</t>
-  </si>
-  <si>
-    <t>SRC0003</t>
-  </si>
-  <si>
     <t>SRC0004</t>
   </si>
   <si>
-    <t>Orders</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
     <t>Nation</t>
   </si>
   <si>
-    <t>!Orders</t>
-  </si>
-  <si>
-    <t>!Part</t>
-  </si>
-  <si>
     <t>!Nation</t>
   </si>
   <si>
@@ -278,27 +260,9 @@
     <t>S0001;S0002</t>
   </si>
   <si>
-    <t>SRC0005</t>
-  </si>
-  <si>
-    <t>wilibald</t>
-  </si>
-  <si>
-    <t>wohnort</t>
-  </si>
-  <si>
-    <t>!Wohnort</t>
-  </si>
-  <si>
-    <t>Wohnort</t>
-  </si>
-  <si>
     <t>MAS0001</t>
   </si>
   <si>
-    <t>daniel</t>
-  </si>
-  <si>
     <t>telephone</t>
   </si>
   <si>
@@ -366,6 +330,21 @@
   </si>
   <si>
     <t>cdwh_stg_010138_dynamics</t>
+  </si>
+  <si>
+    <t>PK_CUST</t>
+  </si>
+  <si>
+    <t>Target_Primary_Key_Constraint_Name</t>
+  </si>
+  <si>
+    <t>PK_LCUN</t>
+  </si>
+  <si>
+    <t>PK_CUSP</t>
+  </si>
+  <si>
+    <t>PK_CUSS</t>
   </si>
 </sst>
 </file>
@@ -705,10 +684,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,10 +701,10 @@
     <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -748,36 +727,39 @@
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -785,31 +767,34 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -817,31 +802,34 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -849,31 +837,31 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -881,31 +869,31 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -913,12 +901,12 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -926,9 +914,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -937,7 +924,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -946,7 +933,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -966,10 +953,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -987,13 +974,14 @@
     <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1030,164 +1018,173 @@
         <v>6</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1198,7 +1195,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1220,11 +1217,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B5"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1237,9 +1234,10 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1265,184 +1263,193 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -1452,7 +1459,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -1462,7 +1469,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -1472,7 +1479,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -1482,7 +1489,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -1492,7 +1499,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -1502,7 +1509,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -1512,7 +1519,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -1522,7 +1529,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -1626,7 +1633,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1672,39 +1679,39 @@
         <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1847,10 +1854,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -1949,7 +1956,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2100,7 +2107,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2138,31 +2145,31 @@
         <v>33</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2185,10 +2192,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2229,7 +2236,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2250,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -2255,10 +2262,10 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2269,170 +2276,83 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
+      <c r="C5" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\software\datavaultstarter\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC1CFD-62B6-4C77-8777-52854FFC1B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA9C96-85CE-4B3D-9550-277CB88C8D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
-    <sheet name="standard_link" sheetId="2" r:id="rId2"/>
-    <sheet name="standard_satellite" sheetId="3" r:id="rId3"/>
-    <sheet name="multiactive_satellite" sheetId="4" r:id="rId4"/>
-    <sheet name="non_historized_link" sheetId="5" r:id="rId5"/>
-    <sheet name="non_historized_satellite" sheetId="6" r:id="rId6"/>
-    <sheet name="pit" sheetId="7" r:id="rId7"/>
-    <sheet name="source_data" sheetId="8" r:id="rId8"/>
+    <sheet name="source_data" sheetId="8" r:id="rId1"/>
+    <sheet name="standard_hub" sheetId="1" r:id="rId2"/>
+    <sheet name="standard_link" sheetId="2" r:id="rId3"/>
+    <sheet name="standard_satellite" sheetId="3" r:id="rId4"/>
+    <sheet name="multiactive_satellite" sheetId="4" r:id="rId5"/>
+    <sheet name="non_historized_link" sheetId="5" r:id="rId6"/>
+    <sheet name="non_historized_satellite" sheetId="6" r:id="rId7"/>
+    <sheet name="pit" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="123">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -329,9 +330,6 @@
     <t>customertaxlocation</t>
   </si>
   <si>
-    <t>cdwh_stg_010138_dynamics</t>
-  </si>
-  <si>
     <t>PK_CUST</t>
   </si>
   <si>
@@ -345,6 +343,60 @@
   </si>
   <si>
     <t>PK_CUSS</t>
+  </si>
+  <si>
+    <t>Account Balance</t>
+  </si>
+  <si>
+    <t>Target_Column_Comment</t>
+  </si>
+  <si>
+    <t>Customer Satellite</t>
+  </si>
+  <si>
+    <t>Marktsegment</t>
+  </si>
+  <si>
+    <t>Kundenkommentar</t>
+  </si>
+  <si>
+    <t>Target_Table_Comment</t>
+  </si>
+  <si>
+    <t>Customer Hub</t>
+  </si>
+  <si>
+    <t>Target_Business_Key_Comment</t>
+  </si>
+  <si>
+    <t>Customer Key</t>
+  </si>
+  <si>
+    <t>Wohnort Kunde</t>
+  </si>
+  <si>
+    <t>Multiple Kündennümmern</t>
+  </si>
+  <si>
+    <t>"Kunden: schlüssel"</t>
+  </si>
+  <si>
+    <t>Target_Foreign_Key_Constraint_Name</t>
+  </si>
+  <si>
+    <t>FK_CUST_LCUN</t>
+  </si>
+  <si>
+    <t>FK_CNAT_LCUN</t>
+  </si>
+  <si>
+    <t>Private Customer Satellite</t>
+  </si>
+  <si>
+    <t>FK_CUST_CUSP</t>
+  </si>
+  <si>
+    <t>dwhstage</t>
   </si>
 </sst>
 </file>
@@ -381,12 +433,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -404,6 +450,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,20 +505,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -680,267 +732,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,262 +906,287 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="L1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>59</v>
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
       <c r="I2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,31 +1195,327 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1245,31 +1523,40 @@
         <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1277,31 +1564,37 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1309,28 +1602,37 @@
         <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1338,28 +1640,31 @@
         <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -1367,31 +1672,37 @@
         <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1399,28 +1710,37 @@
         <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1428,178 +1748,202 @@
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1608,8 +1952,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1618,166 +1963,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,14 +1972,204 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1811,9 +2187,10 @@
     <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -1853,14 +2230,17 @@
       <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>53</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P1" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1"/>
@@ -1871,7 +2251,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
@@ -1882,27 +2262,27 @@
       <c r="L3" s="1"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
     </row>
   </sheetData>
@@ -1911,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1919,7 +2299,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2107,7 +2487,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2123,28 +2503,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2185,178 +2565,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_TPCH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\software\datavaultstarter\turbovault4dbt\metadata_ddl\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e720170\software\datavaultstarter7\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA9C96-85CE-4B3D-9550-277CB88C8D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C7FB7C-AED0-4B01-B59F-45D0A19220EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source_data" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="standard_satellite" sheetId="3" r:id="rId4"/>
     <sheet name="multiactive_satellite" sheetId="4" r:id="rId5"/>
     <sheet name="non_historized_link" sheetId="5" r:id="rId6"/>
-    <sheet name="non_historized_satellite" sheetId="6" r:id="rId7"/>
-    <sheet name="pit" sheetId="7" r:id="rId8"/>
+    <sheet name="link_eff_satellite" sheetId="9" r:id="rId7"/>
+    <sheet name="non_historized_satellite" sheetId="6" r:id="rId8"/>
+    <sheet name="pit" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="125">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -396,7 +397,13 @@
     <t>FK_CUST_CUSP</t>
   </si>
   <si>
-    <t>dwhstage</t>
+    <t>cdwh_stg_010138_dynamics</t>
+  </si>
+  <si>
+    <t>Link_Effectivity_Satellite</t>
+  </si>
+  <si>
+    <t>Driving_Key</t>
   </si>
 </sst>
 </file>
@@ -495,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,6 +525,18 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -738,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -912,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1199,10 +1218,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1228,63 +1247,72 @@
     <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1310,26 +1338,23 @@
       <c r="L2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>102</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1354,26 +1379,23 @@
       <c r="L3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>119</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>102</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -1395,21 +1417,18 @@
       <c r="L4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -1441,21 +1460,18 @@
       <c r="L5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5">
+      <c r="N5" s="1"/>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1468,7 +1484,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1492,11 +1508,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1531,7 @@
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1555,8 +1571,9 @@
       <c r="M1" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1594,7 +1611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1664,7 +1681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -1702,7 +1719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1740,7 +1757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1778,7 +1795,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1789,7 +1806,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1800,7 +1817,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1811,7 +1828,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1822,7 +1839,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1833,7 +1850,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1844,7 +1861,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1855,7 +1872,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1866,7 +1883,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1934,8 +1951,8 @@
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1953,17 +1970,6 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1978,8 +1984,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2111,7 +2117,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
@@ -2166,10 +2172,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2190,57 +2196,66 @@
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="S1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1"/>
@@ -2251,7 +2266,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
@@ -2262,27 +2277,27 @@
       <c r="L3" s="1"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
     </row>
   </sheetData>
@@ -2292,6 +2307,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2006DB15-0C0B-4C55-92BA-F7D12BC662AC}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2299,7 +2353,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2479,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
